--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{952CFBE0-26FE-4B98-8324-5ADA35DAF693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77E8B3-D5DD-4B8F-9CAC-AB77B8773BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,9 +475,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77E8B3-D5DD-4B8F-9CAC-AB77B8773BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBBCA9A-140E-4170-B66D-D50279EA0F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,14 +481,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
-  <dimension ref="A1"/>
+  <dimension ref="H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBBCA9A-140E-4170-B66D-D50279EA0F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F5029F-C9EC-43C9-BB87-8A3508800B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -481,14 +484,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7D19BF-FDDF-4858-8DA2-9336A07F3DE6}">
-  <dimension ref="H17"/>
+  <dimension ref="H15:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="15" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>0</v>

--- a/9. Data_Validation.xlsx
+++ b/9. Data_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F5029F-C9EC-43C9-BB87-8A3508800B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA4A76F-89CA-4271-B667-94D166629E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA3E773C-095A-47C1-9754-4FFBA3C168DB}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">        </t>
   </si>
   <si>
-    <t xml:space="preserve">      </t>
+    <t>fffffff</t>
   </si>
 </sst>
 </file>
